--- a/outputs-HGR-r202/p__Verrucomicrobiota.xlsx
+++ b/outputs-HGR-r202/p__Verrucomicrobiota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +697,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +726,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -705,6 +755,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +784,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -753,6 +813,11 @@
           <t>c__Verrucomicrobiae</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -773,6 +838,11 @@
         <v>0.9999011016900197</v>
       </c>
       <c r="F14" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>c__Verrucomicrobiae</t>
         </is>

--- a/outputs-HGR-r202/p__Verrucomicrobiota.xlsx
+++ b/outputs-HGR-r202/p__Verrucomicrobiota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,114 +503,230 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT19408.fa</t>
+          <t>even_MAG-GUT11036.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.22019368252088e-14</v>
+        <v>2.220456314499241e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7820909202313276</v>
+        <v>2.33394340439819e-06</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2179090797686502</v>
+        <v>0.9999976660565734</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7820909202313276</v>
+        <v>0.9999976660565734</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>c__Lentisphaeria</t>
+          <t>c__Verrucomicrobiae</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>c__Lentisphaeria</t>
+          <t>c__Verrucomicrobiae</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT2874.fa</t>
+          <t>even_MAG-GUT19408.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.220406837565594e-14</v>
+        <v>2.22019368252088e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>8.789893404736822e-05</v>
+        <v>0.7820909202313276</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999121010659303</v>
+        <v>0.2179090797686502</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999121010659303</v>
+        <v>0.7820909202313276</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>c__Verrucomicrobiae</t>
+          <t>c__Lentisphaeria</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>c__Verrucomicrobiae</t>
+          <t>c__Lentisphaeria(reject)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT31872.fa</t>
+          <t>even_MAG-GUT2874.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.220275581210805e-14</v>
+        <v>2.220406837565594e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7055049949689283</v>
+        <v>8.789893404736822e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2944950050310495</v>
+        <v>0.9999121010659303</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7055049949689283</v>
+        <v>0.9999121010659303</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>c__Lentisphaeria</t>
+          <t>c__Verrucomicrobiae</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>c__Lentisphaeria</t>
+          <t>c__Verrucomicrobiae</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT31872.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.220275581210805e-14</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7055049949689283</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2944950050310495</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7055049949689283</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>c__Lentisphaeria(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT51766.fa</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.220456266019458e-14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.879394202689561e-07</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9999992120605575</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.9999992120605575</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT58707.fa</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B8" t="n">
         <v>2.220447848955757e-14</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C8" t="n">
         <v>1.973159948795644e-06</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8" t="n">
         <v>0.999998026840029</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E8" t="n">
         <v>0.999998026840029</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>c__Verrucomicrobiae</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT61749.fa</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.220452846341942e-14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.611407182630713e-06</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9999973885927952</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.9999973885927952</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT62393.fa</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.220452843520636e-14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.607459975777138e-06</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9999973925400021</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9999973925400021</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>c__Verrucomicrobiae</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>c__Verrucomicrobiae</t>
         </is>
